--- a/output/KAPITALO_25423269000101.xlsx
+++ b/output/KAPITALO_25423269000101.xlsx
@@ -933,10 +933,10 @@
         <v>44165</v>
       </c>
       <c r="B50">
-        <v>0.4899209</v>
+        <v>0.4843834</v>
       </c>
       <c r="C50">
-        <v>0.03790620772615205</v>
+        <v>0.03404868372921821</v>
       </c>
     </row>
   </sheetData>

--- a/output/KAPITALO_25423269000101.xlsx
+++ b/output/KAPITALO_25423269000101.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>KAPITALO PWM FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,557 +383,410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42704</v>
       </c>
       <c r="B2">
-        <v>0.007224499999999967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42735</v>
       </c>
       <c r="B3">
-        <v>0.02958649999999996</v>
-      </c>
-      <c r="C3">
         <v>0.02220160450823028</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42766</v>
       </c>
       <c r="B4">
-        <v>0.06400220000000001</v>
-      </c>
-      <c r="C4">
         <v>0.03342672033869909</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42794</v>
       </c>
       <c r="B5">
-        <v>0.09018130000000002</v>
-      </c>
-      <c r="C5">
         <v>0.02460436641954322</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42825</v>
       </c>
       <c r="B6">
-        <v>0.1013691999999999</v>
-      </c>
-      <c r="C6">
         <v>0.01026242148897616</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42855</v>
       </c>
       <c r="B7">
-        <v>0.08689780000000003</v>
-      </c>
-      <c r="C7">
         <v>-0.01313946313370662</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42886</v>
       </c>
       <c r="B8">
-        <v>0.06035860000000004</v>
-      </c>
-      <c r="C8">
         <v>-0.02441738312470587</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42916</v>
       </c>
       <c r="B9">
-        <v>0.09235480000000007</v>
-      </c>
-      <c r="C9">
         <v>0.03017488611871499</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42947</v>
       </c>
       <c r="B10">
-        <v>0.1427510000000001</v>
-      </c>
-      <c r="C10">
         <v>0.04613537652784605</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42978</v>
       </c>
       <c r="B11">
-        <v>0.1610156</v>
-      </c>
-      <c r="C11">
         <v>0.01598300942199993</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43008</v>
       </c>
       <c r="B12">
-        <v>0.2081994</v>
-      </c>
-      <c r="C12">
         <v>0.04064010853945454</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43039</v>
       </c>
       <c r="B13">
-        <v>0.1951022</v>
-      </c>
-      <c r="C13">
         <v>-0.01084026361873713</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43069</v>
       </c>
       <c r="B14">
-        <v>0.1910019999999999</v>
-      </c>
-      <c r="C14">
         <v>-0.003430836291657857</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43100</v>
       </c>
       <c r="B15">
-        <v>0.1961250999999999</v>
-      </c>
-      <c r="C15">
         <v>0.004301504111664078</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43131</v>
       </c>
       <c r="B16">
-        <v>0.2584607000000001</v>
-      </c>
-      <c r="C16">
         <v>0.05211461577054122</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43159</v>
       </c>
       <c r="B17">
-        <v>0.2969341000000001</v>
-      </c>
-      <c r="C17">
         <v>0.03057179298487434</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43190</v>
       </c>
       <c r="B18">
-        <v>0.3448439999999999</v>
-      </c>
-      <c r="C18">
         <v>0.03694089005755941</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43220</v>
       </c>
       <c r="B19">
-        <v>0.3833024</v>
-      </c>
-      <c r="C19">
         <v>0.0285969227657632</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43251</v>
       </c>
       <c r="B20">
-        <v>0.3427226000000001</v>
-      </c>
-      <c r="C20">
         <v>-0.02933545116382352</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43281</v>
       </c>
       <c r="B21">
-        <v>0.3774804</v>
-      </c>
-      <c r="C21">
         <v>0.02588606164817664</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43312</v>
       </c>
       <c r="B22">
-        <v>0.3998478999999999</v>
-      </c>
-      <c r="C22">
         <v>0.01623798059123005</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43343</v>
       </c>
       <c r="B23">
-        <v>0.3956154000000001</v>
-      </c>
-      <c r="C23">
         <v>-0.003023542772039645</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43373</v>
       </c>
       <c r="B24">
-        <v>0.4288763</v>
-      </c>
-      <c r="C24">
         <v>0.02383242546621367</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43404</v>
       </c>
       <c r="B25">
-        <v>0.4765766</v>
-      </c>
-      <c r="C25">
         <v>0.03338308571567739</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43434</v>
       </c>
       <c r="B26">
-        <v>0.4377740000000001</v>
-      </c>
-      <c r="C26">
         <v>-0.02627875858252116</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43465</v>
       </c>
       <c r="B27">
-        <v>0.4092198</v>
-      </c>
-      <c r="C27">
         <v>-0.01986000581454395</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43496</v>
       </c>
       <c r="B28">
-        <v>0.4713617000000001</v>
-      </c>
-      <c r="C28">
         <v>0.04409666966075854</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43524</v>
       </c>
       <c r="B29">
-        <v>0.4825504</v>
-      </c>
-      <c r="C29">
         <v>0.007604316464129734</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43555</v>
       </c>
       <c r="B30">
-        <v>0.4795263000000001</v>
-      </c>
-      <c r="C30">
         <v>-0.00203979574657287</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43585</v>
       </c>
       <c r="B31">
-        <v>0.4771679</v>
-      </c>
-      <c r="C31">
         <v>-0.001594023708804682</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43616</v>
       </c>
       <c r="B32">
-        <v>0.4687745999999999</v>
-      </c>
-      <c r="C32">
         <v>-0.0056820216577953</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43646</v>
       </c>
       <c r="B33">
-        <v>0.5284192000000001</v>
-      </c>
-      <c r="C33">
         <v>0.0406084092140484</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43677</v>
       </c>
       <c r="B34">
-        <v>0.5161739000000001</v>
-      </c>
-      <c r="C34">
         <v>-0.008011741804866079</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43708</v>
       </c>
       <c r="B35">
-        <v>0.5187543999999999</v>
-      </c>
-      <c r="C35">
         <v>0.001701981547103548</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43738</v>
       </c>
       <c r="B36">
-        <v>0.5369714999999999</v>
-      </c>
-      <c r="C36">
         <v>0.01199476360364793</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43769</v>
       </c>
       <c r="B37">
-        <v>0.5826191999999999</v>
-      </c>
-      <c r="C37">
         <v>0.02969976996970991</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43799</v>
       </c>
       <c r="B38">
-        <v>0.5803691</v>
-      </c>
-      <c r="C38">
         <v>-0.001421757046799366</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43830</v>
       </c>
       <c r="B39">
-        <v>0.6307071</v>
-      </c>
-      <c r="C39">
         <v>0.03185205278944014</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43861</v>
       </c>
       <c r="B40">
-        <v>0.5966758999999999</v>
-      </c>
-      <c r="C40">
         <v>-0.02086898376783919</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43890</v>
       </c>
       <c r="B41">
-        <v>0.5493146</v>
-      </c>
-      <c r="C41">
         <v>-0.02966243806899072</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43921</v>
       </c>
       <c r="B42">
-        <v>0.3816324</v>
-      </c>
-      <c r="C42">
         <v>-0.1082299230898618</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43951</v>
       </c>
       <c r="B43">
-        <v>0.4099189999999999</v>
-      </c>
-      <c r="C43">
         <v>0.02047331837325173</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43982</v>
       </c>
       <c r="B44">
-        <v>0.4445504</v>
-      </c>
-      <c r="C44">
         <v>0.02456268764375835</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>44012</v>
       </c>
       <c r="B45">
-        <v>0.4405317</v>
-      </c>
-      <c r="C45">
         <v>-0.002781972854668191</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>44043</v>
       </c>
       <c r="B46">
-        <v>0.4818944999999999</v>
-      </c>
-      <c r="C46">
         <v>0.02871356458174423</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>44074</v>
       </c>
       <c r="B47">
-        <v>0.4946942999999999</v>
-      </c>
-      <c r="C47">
         <v>0.008637456984960767</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>44104</v>
       </c>
       <c r="B48">
-        <v>0.4473191999999999</v>
-      </c>
-      <c r="C48">
         <v>-0.0316955112493571</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>44135</v>
       </c>
       <c r="B49">
-        <v>0.4355062999999999</v>
-      </c>
-      <c r="C49">
         <v>-0.008161917564556642</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>44165</v>
       </c>
       <c r="B50">
-        <v>0.4843834</v>
-      </c>
-      <c r="C50">
-        <v>0.03404868372921821</v>
+        <v>0.02402142017767539</v>
       </c>
     </row>
   </sheetData>
